--- a/examples/sbtab-sbml/hynne.xlsx
+++ b/examples/sbtab-sbml/hynne.xlsx
@@ -7,60 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
-    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
-    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
-    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
-    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
-    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
-    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
-    <sheet name="!Position" sheetId="10" r:id="rId10"/>
-    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
-    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
-    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
-    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
-    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
-    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
-    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
-    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
-    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
-    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
+    <sheet name="!!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -72,7 +72,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6340,9 +6340,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="542">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="543">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:09:11'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6660,7 +6663,7 @@
     <t>GlcX0</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6675,7 +6678,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6696,7 +6699,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6711,7 +6714,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6741,7 +6744,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6777,7 +6780,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6789,7 +6792,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6798,16 +6801,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7386,7 +7389,7 @@
     <t>k24r</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7404,7 +7407,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7443,7 +7446,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7839,7 +7842,7 @@
     <t>2.7.4.3</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:11:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7851,7 +7854,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7863,7 +7866,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7878,13 +7881,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7893,13 +7896,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7908,19 +7911,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:09:14' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:09:14' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7941,7 +7944,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:11:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:09:14' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8339,10 +8342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -8377,92 +8380,90 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15.01" customHeight="1">
       <c r="A4" s="4"/>
@@ -8490,71 +8491,97 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
+    <row r="5" spans="1:20" ht="15.01" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T4"/>
+  <autoFilter ref="A3:T5"/>
   <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3:F4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I3:I4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J3:J4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4:D5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E4:E5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4:F5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4:H5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I4:I5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J4:J5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K3:K4">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K4:K5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L3:L4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M3:M4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N3:N4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O3:O4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P3:P4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L4:L5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M4:M5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N4:N5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O4:O5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P4:P5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q3:Q4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3:R4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S3:S4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3:T4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q4:Q5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R4:R5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S4:S5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T4:T5">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -8580,20 +8607,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -8634,7 +8661,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8653,49 +8680,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8801,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8853,229 +8880,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
@@ -9084,7 +9111,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -9093,7 +9120,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -9109,14 +9136,14 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -9175,7 +9202,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -9184,7 +9211,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -9200,14 +9227,14 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -9266,7 +9293,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -9275,7 +9302,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -9291,14 +9318,14 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -9357,7 +9384,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -9366,7 +9393,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -9382,14 +9409,14 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -9448,7 +9475,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9457,7 +9484,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -9473,14 +9500,14 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -9539,7 +9566,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -9548,7 +9575,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -9564,14 +9591,14 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -9630,7 +9657,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -9639,7 +9666,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -9655,14 +9682,14 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -9721,7 +9748,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -9730,7 +9757,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -9746,14 +9773,14 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -9812,7 +9839,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -9821,7 +9848,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -9837,14 +9864,14 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -9903,7 +9930,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -9912,7 +9939,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -9928,14 +9955,14 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -9994,7 +10021,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -10003,7 +10030,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -10019,14 +10046,14 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -10085,7 +10112,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -10094,7 +10121,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -10110,14 +10137,14 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -10176,7 +10203,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -10185,7 +10212,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -10201,14 +10228,14 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -10267,7 +10294,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -10276,7 +10303,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -10292,14 +10319,14 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -10358,7 +10385,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -10367,7 +10394,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -10383,14 +10410,14 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -10449,7 +10476,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -10458,7 +10485,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -10474,14 +10501,14 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -10540,7 +10567,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -10549,7 +10576,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -10565,14 +10592,14 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -10631,7 +10658,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -10640,7 +10667,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -10656,14 +10683,14 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -10722,7 +10749,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -10731,7 +10758,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -10747,14 +10774,14 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -10813,7 +10840,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -10822,7 +10849,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -10838,14 +10865,14 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -10904,7 +10931,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -10913,7 +10940,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -10929,14 +10956,14 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -10995,7 +11022,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -11004,7 +11031,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -11020,14 +11047,14 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -11086,7 +11113,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -11095,7 +11122,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -11111,14 +11138,14 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -11177,7 +11204,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -11186,7 +11213,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -11202,14 +11229,14 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -11268,7 +11295,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -11277,7 +11304,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -11293,14 +11320,14 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -11359,7 +11386,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -11368,7 +11395,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -11384,14 +11411,14 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -11450,7 +11477,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -11459,7 +11486,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -11475,14 +11502,14 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -11541,7 +11568,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -11550,7 +11577,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -11566,14 +11593,14 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -11632,7 +11659,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -11641,7 +11668,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -11657,14 +11684,14 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -11723,7 +11750,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -11732,7 +11759,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -11748,14 +11775,14 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -11814,7 +11841,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -11823,7 +11850,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -11839,14 +11866,14 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -11905,7 +11932,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -11914,7 +11941,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -11930,14 +11957,14 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -11996,7 +12023,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -12005,7 +12032,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -12021,14 +12048,14 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -12087,7 +12114,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -12096,7 +12123,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -12112,14 +12139,14 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -12178,7 +12205,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -12187,7 +12214,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -12203,14 +12230,14 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -12269,7 +12296,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -12278,7 +12305,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -12294,14 +12321,14 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -12360,7 +12387,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -12369,7 +12396,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -12385,14 +12412,14 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
@@ -12451,7 +12478,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -12460,7 +12487,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -12476,14 +12503,14 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
@@ -12542,7 +12569,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -12551,7 +12578,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -12567,14 +12594,14 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
@@ -12633,7 +12660,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -12642,7 +12669,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -12658,14 +12685,14 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
@@ -12724,7 +12751,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -12733,7 +12760,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -12749,14 +12776,14 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
@@ -12815,7 +12842,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -12824,7 +12851,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -12840,14 +12867,14 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
@@ -12906,7 +12933,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -12915,7 +12942,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -12931,14 +12958,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
@@ -12997,7 +13024,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -13006,7 +13033,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -13022,14 +13049,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
@@ -13088,7 +13115,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -13097,7 +13124,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -13113,14 +13140,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
@@ -13179,7 +13206,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -13188,7 +13215,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -13204,14 +13231,14 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
@@ -13270,7 +13297,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -13279,7 +13306,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -13295,14 +13322,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
@@ -13361,7 +13388,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -13370,7 +13397,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -13386,14 +13413,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
@@ -13452,7 +13479,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -13461,7 +13488,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -13477,14 +13504,14 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
@@ -13543,7 +13570,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -13552,7 +13579,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -13568,14 +13595,14 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
@@ -13634,7 +13661,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -13643,7 +13670,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -13659,14 +13686,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
@@ -13725,7 +13752,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -13734,7 +13761,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -13750,14 +13777,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
@@ -13816,7 +13843,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -13825,7 +13852,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -13841,14 +13868,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
@@ -13907,7 +13934,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -13916,7 +13943,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -13932,14 +13959,14 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
@@ -13998,7 +14025,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -14007,7 +14034,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -14023,14 +14050,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
@@ -14089,7 +14116,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -14098,7 +14125,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -14114,14 +14141,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
@@ -14180,7 +14207,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -14189,7 +14216,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -14205,14 +14232,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
@@ -14271,7 +14298,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -14280,7 +14307,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -14296,14 +14323,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
@@ -14362,7 +14389,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -14371,7 +14398,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -14387,14 +14414,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
@@ -14453,7 +14480,7 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -14462,7 +14489,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -14478,14 +14505,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA62" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
@@ -14544,7 +14571,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -14553,7 +14580,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -14569,14 +14596,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA63" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
@@ -14635,7 +14662,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -14644,7 +14671,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -14660,14 +14687,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA64" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
@@ -14726,7 +14753,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -14735,7 +14762,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -14751,14 +14778,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA65" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
@@ -14817,7 +14844,7 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -14826,7 +14853,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -14842,14 +14869,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
@@ -14908,7 +14935,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -14917,7 +14944,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -14933,14 +14960,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
@@ -14999,7 +15026,7 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -15008,7 +15035,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -15024,14 +15051,14 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
@@ -15090,7 +15117,7 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -15099,7 +15126,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -15115,14 +15142,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA69" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
@@ -15181,7 +15208,7 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -15190,7 +15217,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -15206,14 +15233,14 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -15272,7 +15299,7 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -15281,7 +15308,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -15297,14 +15324,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA71" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -15633,7 +15660,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -15656,61 +15683,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -15803,7 +15830,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -15856,151 +15883,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -16195,7 +16222,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16246,145 +16273,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
@@ -16395,7 +16422,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -16403,11 +16430,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -16431,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -16468,7 +16495,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -16476,11 +16503,11 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -16504,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -16531,7 +16558,7 @@
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
@@ -16543,7 +16570,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -16551,11 +16578,11 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -16579,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -16602,7 +16629,7 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
@@ -16618,7 +16645,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -16626,11 +16653,11 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -16654,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -16677,7 +16704,7 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
@@ -16693,7 +16720,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -16701,11 +16728,11 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -16729,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -16752,13 +16779,13 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AU7" s="4"/>
     </row>
@@ -16770,7 +16797,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -16778,11 +16805,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -16806,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -16829,7 +16856,7 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
@@ -16845,7 +16872,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -16853,11 +16880,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -16881,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -16904,7 +16931,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
@@ -16920,7 +16947,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -16928,11 +16955,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -16956,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -16979,7 +17006,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
@@ -16995,7 +17022,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -17003,11 +17030,11 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -17031,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -17054,7 +17081,7 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
@@ -17070,7 +17097,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -17078,11 +17105,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -17106,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -17129,7 +17156,7 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
@@ -17145,7 +17172,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -17153,11 +17180,11 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -17181,7 +17208,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -17204,7 +17231,7 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
@@ -17220,7 +17247,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -17228,11 +17255,11 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -17256,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -17279,7 +17306,7 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
@@ -17295,7 +17322,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -17303,11 +17330,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -17331,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -17368,7 +17395,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -17376,11 +17403,11 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -17404,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -17441,7 +17468,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -17449,11 +17476,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -17477,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -17500,7 +17527,7 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
@@ -17516,7 +17543,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -17524,11 +17551,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -17552,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -17589,7 +17616,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -17597,11 +17624,11 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -17625,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -17662,7 +17689,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -17670,11 +17697,11 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -17698,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -17735,7 +17762,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -17743,11 +17770,11 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -17771,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -17808,7 +17835,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -17816,11 +17843,11 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -17844,7 +17871,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -17881,7 +17908,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -17889,11 +17916,11 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -17917,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -17954,7 +17981,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -17962,11 +17989,11 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -17990,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -18027,7 +18054,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -18035,11 +18062,11 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -18063,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -18100,7 +18127,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -18108,11 +18135,11 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -18136,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -18159,7 +18186,7 @@
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
@@ -18338,7 +18365,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18348,22 +18375,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -18411,7 +18438,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18432,55 +18459,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -18563,7 +18590,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18577,34 +18604,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -18665,7 +18692,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18676,25 +18703,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -18746,7 +18773,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18785,109 +18812,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
@@ -18897,7 +18924,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -18905,7 +18932,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -18915,7 +18942,7 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -18933,7 +18960,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -18950,7 +18977,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -18958,7 +18985,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -18968,7 +18995,7 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -18986,7 +19013,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -19003,7 +19030,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -19011,7 +19038,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -19021,7 +19048,7 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -19039,7 +19066,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -19056,7 +19083,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -19064,7 +19091,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -19074,7 +19101,7 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -19092,7 +19119,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -19109,7 +19136,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -19117,7 +19144,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -19127,7 +19154,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -19145,7 +19172,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -19162,7 +19189,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -19170,7 +19197,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -19180,7 +19207,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -19198,7 +19225,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -19215,7 +19242,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -19223,7 +19250,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -19233,7 +19260,7 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -19251,7 +19278,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -19268,7 +19295,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -19276,7 +19303,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -19286,7 +19313,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -19304,7 +19331,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -19321,7 +19348,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -19329,7 +19356,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -19339,7 +19366,7 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -19357,7 +19384,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -19374,7 +19401,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -19382,7 +19409,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -19392,7 +19419,7 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -19410,7 +19437,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -19427,7 +19454,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -19435,7 +19462,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -19445,7 +19472,7 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -19463,7 +19490,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -19480,7 +19507,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -19488,7 +19515,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -19498,7 +19525,7 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -19516,7 +19543,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -19533,7 +19560,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -19541,7 +19568,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -19551,7 +19578,7 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -19569,7 +19596,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -19586,7 +19613,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -19594,7 +19621,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -19604,7 +19631,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -19622,7 +19649,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -19639,7 +19666,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -19647,7 +19674,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -19657,7 +19684,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -19675,7 +19702,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -19698,7 +19725,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -19708,7 +19735,7 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -19726,7 +19753,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -19743,7 +19770,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -19751,7 +19778,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -19761,7 +19788,7 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -19779,7 +19806,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -19796,7 +19823,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -19804,7 +19831,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -19814,7 +19841,7 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -19832,7 +19859,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
@@ -19849,7 +19876,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19857,7 +19884,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -19867,7 +19894,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -19885,7 +19912,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
@@ -19902,7 +19929,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -19910,7 +19937,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -19920,7 +19947,7 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -19938,7 +19965,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -19955,7 +19982,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -19963,7 +19990,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -19973,7 +20000,7 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -19991,7 +20018,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -20008,7 +20035,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -20016,7 +20043,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -20026,7 +20053,7 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -20044,7 +20071,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -20067,7 +20094,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -20077,7 +20104,7 @@
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -20110,7 +20137,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -20118,7 +20145,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -20128,7 +20155,7 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -20146,7 +20173,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
@@ -20163,7 +20190,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20171,7 +20198,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -20181,7 +20208,7 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -20199,7 +20226,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
@@ -20348,20 +20375,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -20401,16 +20428,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -20446,20 +20473,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -20501,16 +20528,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -20546,7 +20573,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20555,19 +20582,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -20612,7 +20639,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20624,28 +20651,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -20700,7 +20727,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20716,40 +20743,40 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -20816,7 +20843,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20825,19 +20852,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -20882,7 +20909,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20905,61 +20932,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -21048,7 +21075,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21058,22 +21085,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -21121,7 +21148,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21147,70 +21174,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -21308,7 +21335,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21325,43 +21352,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -21434,7 +21461,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21443,19 +21470,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -21500,16 +21527,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sbtab-sbml/hynne.xlsx
+++ b/examples/sbtab-sbml/hynne.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="543">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:09:11'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:09:35'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6663,7 +6663,7 @@
     <t>GlcX0</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6678,7 +6678,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6699,7 +6699,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6714,7 +6714,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:09:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6744,7 +6744,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6780,7 +6780,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6792,7 +6792,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6801,16 +6801,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7389,7 +7389,7 @@
     <t>k24r</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7407,7 +7407,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:09:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7446,7 +7446,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7842,7 +7842,7 @@
     <t>2.7.4.3</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7854,7 +7854,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7866,7 +7866,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7881,13 +7881,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7896,13 +7896,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7911,19 +7911,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:09:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:09:14' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:09:14' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7944,7 +7944,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:09:14' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8518,7 +8518,7 @@
       <c r="T5" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T5"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A5">
@@ -8624,7 +8624,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8726,7 +8726,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -15385,7 +15385,7 @@
       <c r="BW71" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW71"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A71">
@@ -15741,7 +15741,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16031,7 +16031,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -18195,7 +18195,7 @@
       <c r="AU26" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU26"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A26">
@@ -18394,7 +18394,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -18511,7 +18511,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -18635,7 +18635,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -18725,7 +18725,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20237,7 +20237,7 @@
       <c r="AI27" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI27"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A27">
@@ -20392,7 +20392,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20441,7 +20441,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20490,7 +20490,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -20541,7 +20541,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20598,7 +20598,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20676,7 +20676,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -20780,7 +20780,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -20868,7 +20868,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20990,7 +20990,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21104,7 +21104,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21241,7 +21241,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21392,7 +21392,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21486,7 +21486,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21540,7 +21540,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">

--- a/examples/sbtab-sbml/hynne.xlsx
+++ b/examples/sbtab-sbml/hynne.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="543">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:09:35'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:00:02'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6663,7 +6663,7 @@
     <t>GlcX0</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6678,7 +6678,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6699,7 +6699,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6714,7 +6714,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6744,7 +6744,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6780,7 +6780,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6792,7 +6792,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6801,16 +6801,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7389,7 +7389,7 @@
     <t>k24r</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7407,7 +7407,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7446,7 +7446,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000061'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7842,7 +7842,7 @@
     <t>2.7.4.3</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7854,7 +7854,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7866,7 +7866,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7881,13 +7881,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7896,13 +7896,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7911,19 +7911,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7944,7 +7944,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:09:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/hynne.xlsx
+++ b/examples/sbtab-sbml/hynne.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="543">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:00:02'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:30:21'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6663,7 +6663,7 @@
     <t>GlcX0</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6678,7 +6678,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6699,7 +6699,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6714,7 +6714,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6744,7 +6744,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6780,7 +6780,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6792,7 +6792,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6801,16 +6801,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7389,7 +7389,7 @@
     <t>k24r</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7407,7 +7407,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7446,7 +7446,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:00:02' objTablesVersion='0.0.8' document='BIOMD0000000061'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' document='BIOMD0000000061' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7842,7 +7842,7 @@
     <t>2.7.4.3</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:00:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7854,7 +7854,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7866,7 +7866,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7881,13 +7881,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7896,13 +7896,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7911,19 +7911,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7944,7 +7944,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:00:03' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:30:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
